--- a/Files/Vaccine_April 11, 2011.xlsx
+++ b/Files/Vaccine_April 11, 2011.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="304">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Kinrix</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">$77.48</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">200-2011 -38199</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Hib [3]</t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">Comvax</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">200-2011-38200</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -257,8 +257,7 @@
     <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -276,8 +275,7 @@
     <t xml:space="preserve">58160-0820-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -289,7 +287,7 @@
     <t xml:space="preserve">$23.20</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -331,7 +329,7 @@
     <t xml:space="preserve">$22.83</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant [5]</t>
+    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil</t>
@@ -346,7 +344,7 @@
     <t xml:space="preserve">$130.27</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">Cervarix</t>
@@ -364,7 +362,7 @@
     <t xml:space="preserve">$128.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -397,7 +395,7 @@
     <t xml:space="preserve">200-2011-38204</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -412,8 +410,7 @@
     <t xml:space="preserve">$50.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -452,7 +449,7 @@
     <t xml:space="preserve">$56.313</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -470,7 +467,7 @@
     <t xml:space="preserve">$69.59</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -485,7 +482,7 @@
     <t xml:space="preserve">$102.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Decavac</t>
@@ -494,8 +491,7 @@
     <t xml:space="preserve">49281-0291-10</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">$16.50</t>
@@ -525,7 +521,7 @@
     <t xml:space="preserve">200-2011-38202</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -543,8 +539,7 @@
     <t xml:space="preserve">58160-0842-51</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose TL syringes,
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose TL syringes, No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">Adacel</t>
@@ -562,7 +557,7 @@
     <t xml:space="preserve">5 pack - 1 dose BD Leur-Lok syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -577,7 +572,7 @@
     <t xml:space="preserve">$83.77</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -595,13 +590,13 @@
     <t xml:space="preserve">58160-0826-48</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$43.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX-B</t>
@@ -622,7 +617,7 @@
     <t xml:space="preserve">58160-0821-48</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult [5]</t>
+    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$89.168</t>
@@ -631,7 +626,7 @@
     <t xml:space="preserve">200-2010-35150</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0830-11</t>
@@ -643,7 +638,7 @@
     <t xml:space="preserve">5 pack - 1 dose T-L syringe, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$33.614</t>
@@ -682,7 +677,7 @@
     <t xml:space="preserve">10 pack - 1 dose TL syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$55.364</t>
@@ -715,20 +710,19 @@
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">$9.661</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, H and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, H and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">$64.79</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -746,13 +740,10 @@
     <t xml:space="preserve">200-2011-38140</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0111-25</t>
@@ -767,12 +758,10 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-No-Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0011-50</t>
@@ -787,15 +776,13 @@
     <t xml:space="preserve">49281-0011-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Preservative Free</t>
+    <t xml:space="preserve">Fluarix Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0878-52</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack- 1 dose
-TipLok syringe</t>
+    <t xml:space="preserve">10 pack- 1 dose TipLok syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$8.90</t>
@@ -807,8 +794,7 @@
     <t xml:space="preserve">200-2011-38141</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -826,8 +812,7 @@
     <t xml:space="preserve">200-2011-38142</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative-free</t>
+    <t xml:space="preserve">Fluvirin Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">66521-0114-02</t>
@@ -842,12 +827,10 @@
     <t xml:space="preserve">$13.60</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0109-10</t>
@@ -868,35 +851,27 @@
     <t xml:space="preserve">200-2011-38143</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0011-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$11.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Merck
-(CSL product)</t>
+    <t xml:space="preserve">Merck (CSL product)</t>
   </si>
   <si>
     <t xml:space="preserve">200-2011-38139</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 9 years and older)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afluria</t>
   </si>
   <si>
@@ -912,35 +887,25 @@
     <t xml:space="preserve">$10.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6] (Age 6 months and older)</t>
-  </si>
-  <si>
     <t xml:space="preserve">200-2011-38145</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5] (age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-No Preservative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza [5, 6] (Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">200-2011-38147</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5] (Age 4 years and older)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fluarix Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">200-2011-38146</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6] (18 years and older)</t>
+    <t xml:space="preserve">Influenza  (18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">FluLaval </t>
@@ -955,23 +920,13 @@
     <t xml:space="preserve">$7.83</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5] Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist 
-No Preservative</t>
+    <t xml:space="preserve">FluMist  No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack -1 dose sprayer (Intranasal)</t>
   </si>
   <si>
     <t xml:space="preserve">200-2011-38148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza [5] (Age 9 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza [5, 6] (Age 9 years and older)</t>
   </si>
 </sst>
 </file>
@@ -3197,22 +3152,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" t="s">
         <v>285</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>286</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>287</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>288</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>289</v>
-      </c>
-      <c r="F11" t="s">
-        <v>290</v>
       </c>
       <c r="G11" s="1">
         <v>40968</v>
@@ -3271,7 +3226,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>236</v>
@@ -3295,15 +3250,15 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
         <v>249</v>
@@ -3324,15 +3279,15 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
         <v>252</v>
@@ -3353,12 +3308,12 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
         <v>260</v>
@@ -3382,12 +3337,12 @@
         <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>265</v>
@@ -3411,15 +3366,15 @@
         <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
         <v>254</v>
@@ -3440,27 +3395,27 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G8" s="1">
         <v>40968</v>
@@ -3469,21 +3424,21 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
         <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
         <v>274</v>
@@ -3498,12 +3453,12 @@
         <v>276</v>
       </c>
       <c r="I9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
         <v>279</v>
@@ -3532,22 +3487,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
         <v>286</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>287</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>288</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>289</v>
-      </c>
-      <c r="F11" t="s">
-        <v>290</v>
       </c>
       <c r="G11" s="1">
         <v>40968</v>
